--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3039.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3039.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.070384416067216</v>
+        <v>0.4964252412319183</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>2.499825000762939</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>6.400107860565186</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>1.557233095169067</v>
       </c>
       <c r="E1">
-        <v>1.091894110857281</v>
+        <v>0.8968315720558167</v>
       </c>
     </row>
   </sheetData>
